--- a/EO-EC-TA-full/F7-full.xlsx
+++ b/EO-EC-TA-full/F7-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C88E6BA-6769-43C8-AAC1-D99FACE59820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD9356-4B90-48DB-88AC-5C6FA157E2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EA0009A-316D-41F1-B633-F81757A9F576}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A5A71D-7C4C-4AC6-ACFC-72F460CDEAEE}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>54.266587699955728</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.1071608005165228</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.7232476043929741</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.6248092809578552</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.817805366894375</v>
+      <c r="B2" s="4">
+        <v>71.342560342995512</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15.872131456550941</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.2473321178748029</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.6825649218121439</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.250579514458253</v>
       </c>
       <c r="G2">
-        <v>65.539610752717465</v>
+        <v>93.395168353691673</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,36 +554,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>53.912533692822208</v>
-      </c>
-      <c r="C3" s="3">
-        <v>11.92872183648514</v>
-      </c>
-      <c r="D3" s="3">
-        <v>32.290747332557117</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.9594518043870921</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.5991992973277021</v>
+      <c r="B3" s="4">
+        <v>19.990110726282978</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10.82434936022028</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.9566116271380913</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.648243463636017</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.48586460357341</v>
       </c>
       <c r="G3">
-        <v>104.69065396357929</v>
+        <v>43.905179780850773</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -605,23 +605,23 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>22.709963161815249</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10.063992880685589</v>
-      </c>
-      <c r="D4" s="3">
-        <v>41.325178184657041</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.1006049388527783</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.881288164988741</v>
+      <c r="B4" s="4">
+        <v>11.97086452863752</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.1559585506369743</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.8758223113514969</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.2126661526149221</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5351679462287799</v>
       </c>
       <c r="G4">
-        <v>82.081027330999405</v>
+        <v>30.750479489469701</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -644,22 +644,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>12.78934945456159</v>
+        <v>54.266587699955728</v>
       </c>
       <c r="C5" s="3">
-        <v>17.88603442654491</v>
+        <v>4.1071608005165228</v>
       </c>
       <c r="D5" s="3">
-        <v>7.740006194075038</v>
+        <v>2.7232476043929741</v>
       </c>
       <c r="E5" s="3">
-        <v>2.8519871815862872</v>
+        <v>2.6248092809578552</v>
       </c>
       <c r="F5" s="3">
-        <v>2.9942146541011652</v>
+        <v>1.817805366894375</v>
       </c>
       <c r="G5">
-        <v>44.261591910868987</v>
+        <v>65.539610752717465</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -681,23 +681,23 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>85.941689857146031</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8.9137721994092587</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.902934015471633</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.9279697979585571</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.090131949542227</v>
+      <c r="B6" s="4">
+        <v>197.19557694820219</v>
+      </c>
+      <c r="C6" s="4">
+        <v>38.771006129642629</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.1547440618584659</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.6539789438009032</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0292098798371239</v>
       </c>
       <c r="G6">
-        <v>109.77649781952771</v>
+        <v>247.80451596334129</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,36 +706,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>129.71998532954581</v>
-      </c>
-      <c r="C7" s="3">
-        <v>27.765040849006919</v>
-      </c>
-      <c r="D7" s="3">
-        <v>13.65363021617301</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.9896495095326907</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.242205896645681</v>
+      <c r="B7" s="4">
+        <v>15.831304253214689</v>
+      </c>
+      <c r="C7" s="4">
+        <v>36.545879398560643</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.6996545866423</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.0770289719136379</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.4710052313437911</v>
       </c>
       <c r="G7">
-        <v>179.37051180090421</v>
+        <v>69.624872441675052</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -757,23 +757,23 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>88.13708319279209</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.6515244241379818</v>
-      </c>
-      <c r="D8" s="3">
-        <v>18.3845976615784</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.4879139749010211</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.6297600231566611</v>
+      <c r="B8" s="4">
+        <v>107.02808361970089</v>
+      </c>
+      <c r="C8" s="4">
+        <v>19.552218076594631</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.0295749260992464</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.8157273137167991</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.57624894871919</v>
       </c>
       <c r="G8">
-        <v>124.2908792765662</v>
+        <v>137.0018528848307</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,36 +782,36 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>18.99018318887099</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5.0775801552299544</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.5916784014421541</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.8861440009778789</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.8975868546867609</v>
+      <c r="B9" s="4">
+        <v>7.0183899513316126</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.9796029988236459</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.973893122103676</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.2464384864415781</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.59547467777185</v>
       </c>
       <c r="G9">
-        <v>36.443172601207728</v>
+        <v>18.813799236472359</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>8.4973999643532583</v>
+        <v>53.912533692822208</v>
       </c>
       <c r="C10" s="3">
-        <v>5.2884943725493887</v>
+        <v>11.92872183648514</v>
       </c>
       <c r="D10" s="3">
-        <v>5.4025010328894147</v>
+        <v>32.290747332557117</v>
       </c>
       <c r="E10" s="3">
-        <v>3.5741635666880822</v>
+        <v>3.9594518043870921</v>
       </c>
       <c r="F10" s="3">
-        <v>3.9993118810307529</v>
+        <v>2.5991992973277021</v>
       </c>
       <c r="G10">
-        <v>26.7618708175109</v>
+        <v>104.69065396357929</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>85.735189482771787</v>
+        <v>96.056552839281579</v>
       </c>
       <c r="C11" s="3">
-        <v>41.694785849242358</v>
+        <v>8.0841574526910769</v>
       </c>
       <c r="D11" s="3">
-        <v>5.8602114790723707</v>
+        <v>9.086621972886249</v>
       </c>
       <c r="E11" s="3">
-        <v>3.8871935366741122</v>
+        <v>3.351623099565129</v>
       </c>
       <c r="F11" s="3">
-        <v>4.1866738760929643</v>
+        <v>2.6361024268864992</v>
       </c>
       <c r="G11">
-        <v>141.3640542238536</v>
+        <v>119.2150577913105</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,36 +896,36 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>22.699025543180511</v>
-      </c>
-      <c r="C12" s="3">
-        <v>60.179268807600039</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.948650150702701</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.7028117214037022</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.310515710898926</v>
+      <c r="B12" s="4">
+        <v>324.99603926140861</v>
+      </c>
+      <c r="C12" s="4">
+        <v>49.944665097685402</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.0686023774838356</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.1585329775624129</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.753402106103179</v>
       </c>
       <c r="G12">
-        <v>103.8402719337858</v>
+        <v>386.92124182024338</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,36 +934,36 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>14.158915946206561</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5.2915929364418712</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.8893617774042788</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3.038128959658406</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.4083835862418992</v>
+      <c r="B13" s="4">
+        <v>127.96505238696621</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30.396849133836689</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.2872678904591428</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.4011192685527001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.7813525285257459</v>
       </c>
       <c r="G13">
-        <v>30.786383205953019</v>
+        <v>167.8316412083405</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,36 +972,36 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>46.237250734861718</v>
-      </c>
-      <c r="C14" s="3">
-        <v>25.059827196264859</v>
-      </c>
-      <c r="D14" s="3">
-        <v>16.93409721675539</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.5887968952332958</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5.59671077710715</v>
+      <c r="B14" s="4">
+        <v>14.354269983794911</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.0577875500212839</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.8189960216902641</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.8221368056653011</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.811213396934428</v>
       </c>
       <c r="G14">
-        <v>98.416682820222405</v>
+        <v>32.864403758106192</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -1024,22 +1024,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>60.676974175042922</v>
+        <v>176.70076672829839</v>
       </c>
       <c r="C15" s="3">
-        <v>14.701655677482419</v>
+        <v>21.35531777722386</v>
       </c>
       <c r="D15" s="3">
-        <v>45.672540485402003</v>
+        <v>3.1835035619637382</v>
       </c>
       <c r="E15" s="3">
-        <v>8.9484139792122015</v>
+        <v>2.6867882072656188</v>
       </c>
       <c r="F15" s="3">
-        <v>5.9766220793778153</v>
+        <v>2.8688233420542129</v>
       </c>
       <c r="G15">
-        <v>135.97620639651731</v>
+        <v>206.79519961680589</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,22 +1062,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>15.341890597707071</v>
+        <v>22.709963161815249</v>
       </c>
       <c r="C16" s="3">
-        <v>20.33263192361628</v>
+        <v>10.063992880685589</v>
       </c>
       <c r="D16" s="3">
-        <v>3.1465947031954058</v>
+        <v>41.325178184657041</v>
       </c>
       <c r="E16" s="3">
-        <v>4.5670948747670366</v>
+        <v>5.1006049388527783</v>
       </c>
       <c r="F16" s="3">
-        <v>5.9853908119277834</v>
+        <v>2.881288164988741</v>
       </c>
       <c r="G16">
-        <v>49.373602911213567</v>
+        <v>82.081027330999405</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1099,23 +1099,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>194.59602070109551</v>
-      </c>
-      <c r="C17" s="3">
-        <v>9.7010195333590836</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.6882480582321389</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6.2548704932621009</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6.3591710013247189</v>
+      <c r="B17" s="4">
+        <v>6.7088675151340533</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.1955282192033874</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13.346507682725051</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.2366740363471287</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.9515073597264809</v>
       </c>
       <c r="G17">
-        <v>224.59932978727349</v>
+        <v>35.439084813136098</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>37.674051868057212</v>
+        <v>33.488059049759578</v>
       </c>
       <c r="C18" s="3">
-        <v>15.541870591131939</v>
+        <v>14.093264234874139</v>
       </c>
       <c r="D18" s="3">
-        <v>22.143156937439969</v>
+        <v>3.772147002058333</v>
       </c>
       <c r="E18" s="3">
-        <v>5.2544754046303934</v>
+        <v>2.571199393909223</v>
       </c>
       <c r="F18" s="3">
-        <v>7.0058108317261993</v>
+        <v>2.9772133365611202</v>
       </c>
       <c r="G18">
-        <v>87.619365632985676</v>
+        <v>56.901883017162397</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,36 +1162,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>38.337120648382893</v>
-      </c>
-      <c r="C19" s="3">
-        <v>33.319929327869843</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5.7640365663127646</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.9117107814548007</v>
-      </c>
-      <c r="F19" s="3">
-        <v>7.1578322856147487</v>
+      <c r="B19" s="4">
+        <v>58.451619248493913</v>
+      </c>
+      <c r="C19" s="4">
+        <v>24.798287654160429</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9.4370665448428017</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.1571136016163086</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.9920657012009459</v>
       </c>
       <c r="G19">
-        <v>89.490629609635022</v>
+        <v>99.836152750314412</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1214,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>106.55008017882599</v>
+        <v>12.78934945456159</v>
       </c>
       <c r="C20" s="3">
-        <v>31.446726110280281</v>
+        <v>17.88603442654491</v>
       </c>
       <c r="D20" s="3">
-        <v>5.918865196873405</v>
+        <v>7.740006194075038</v>
       </c>
       <c r="E20" s="3">
-        <v>6.8880461206657699</v>
+        <v>2.8519871815862872</v>
       </c>
       <c r="F20" s="3">
-        <v>7.8434969148020999</v>
+        <v>2.9942146541011652</v>
       </c>
       <c r="G20">
-        <v>158.64721452144749</v>
+        <v>44.261591910868987</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>9.9856386068533762</v>
+        <v>227.36100573884579</v>
       </c>
       <c r="C21" s="3">
-        <v>42.659318356464723</v>
+        <v>18.477513129638819</v>
       </c>
       <c r="D21" s="3">
-        <v>16.275321697327229</v>
+        <v>8.6929807383383206</v>
       </c>
       <c r="E21" s="3">
-        <v>5.7393033552211206</v>
+        <v>3.4640093185806839</v>
       </c>
       <c r="F21" s="3">
-        <v>8.2181549134415164</v>
+        <v>3.056916255746533</v>
       </c>
       <c r="G21">
-        <v>82.877736929307943</v>
+        <v>261.05242518115011</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>18.380947590355259</v>
+        <v>85.941689857146031</v>
       </c>
       <c r="C22" s="3">
-        <v>48.779107173800078</v>
+        <v>8.9137721994092587</v>
       </c>
       <c r="D22" s="3">
-        <v>29.559409026668519</v>
+        <v>8.902934015471633</v>
       </c>
       <c r="E22" s="3">
-        <v>9.6582613019357755</v>
+        <v>2.9279697979585571</v>
       </c>
       <c r="F22" s="3">
-        <v>14.67692079418903</v>
+        <v>3.090131949542227</v>
       </c>
       <c r="G22">
-        <v>121.05464588694871</v>
+        <v>109.77649781952771</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>9488.6262196554071</v>
+        <v>129.71998532954581</v>
       </c>
       <c r="C23" s="3">
-        <v>198.7518348111488</v>
+        <v>27.765040849006919</v>
       </c>
       <c r="D23" s="3">
-        <v>354.68729458489719</v>
+        <v>13.65363021617301</v>
       </c>
       <c r="E23" s="3">
-        <v>298.91252121970462</v>
+        <v>4.9896495095326907</v>
       </c>
       <c r="F23" s="3">
-        <v>188.19385323452619</v>
+        <v>3.242205896645681</v>
       </c>
       <c r="G23">
-        <v>10529.17172350568</v>
+        <v>179.37051180090421</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>96.056552839281579</v>
+        <v>17.622061525075459</v>
       </c>
       <c r="C24" s="3">
-        <v>8.0841574526910769</v>
+        <v>3.4209134505335279</v>
       </c>
       <c r="D24" s="3">
-        <v>9.086621972886249</v>
+        <v>2.2962477943176469</v>
       </c>
       <c r="E24" s="3">
-        <v>3.351623099565129</v>
+        <v>2.048004369241343</v>
       </c>
       <c r="F24" s="3">
-        <v>2.6361024268864992</v>
+        <v>3.2954674871093141</v>
       </c>
       <c r="G24">
-        <v>119.2150577913105</v>
+        <v>28.6826946262773</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>176.70076672829839</v>
+        <v>17.480378352190819</v>
       </c>
       <c r="C25" s="3">
-        <v>21.35531777722386</v>
+        <v>22.509733882889829</v>
       </c>
       <c r="D25" s="3">
-        <v>3.1835035619637382</v>
+        <v>3.0326392516618759</v>
       </c>
       <c r="E25" s="3">
-        <v>2.6867882072656188</v>
+        <v>2.904845185674088</v>
       </c>
       <c r="F25" s="3">
-        <v>2.8688233420542129</v>
+        <v>3.3945950680788379</v>
       </c>
       <c r="G25">
-        <v>206.79519961680589</v>
+        <v>49.322191740495448</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -1442,22 +1442,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>33.488059049759578</v>
+        <v>321.33854015072188</v>
       </c>
       <c r="C26" s="3">
-        <v>14.093264234874139</v>
+        <v>38.804733126124383</v>
       </c>
       <c r="D26" s="3">
-        <v>3.772147002058333</v>
+        <v>5.3058505813870998</v>
       </c>
       <c r="E26" s="3">
-        <v>2.571199393909223</v>
+        <v>3.1782613787596561</v>
       </c>
       <c r="F26" s="3">
-        <v>2.9772133365611202</v>
+        <v>3.5145686163670509</v>
       </c>
       <c r="G26">
-        <v>56.901883017162397</v>
+        <v>372.14195385336012</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1480,22 +1480,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>227.36100573884579</v>
+        <v>88.13708319279209</v>
       </c>
       <c r="C27" s="3">
-        <v>18.477513129638819</v>
+        <v>9.6515244241379818</v>
       </c>
       <c r="D27" s="3">
-        <v>8.6929807383383206</v>
+        <v>18.3845976615784</v>
       </c>
       <c r="E27" s="3">
-        <v>3.4640093185806839</v>
+        <v>4.4879139749010211</v>
       </c>
       <c r="F27" s="3">
-        <v>3.056916255746533</v>
+        <v>3.6297600231566611</v>
       </c>
       <c r="G27">
-        <v>261.05242518115011</v>
+        <v>124.2908792765662</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,36 +1504,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3">
-        <v>17.622061525075459</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.4209134505335279</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.2962477943176469</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.048004369241343</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.2954674871093141</v>
+      <c r="B28" s="4">
+        <v>14.91732459380955</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6.0041747264361947</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.8750412754883374</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.6691023443045361</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.6416031764505039</v>
       </c>
       <c r="G28">
-        <v>28.6826946262773</v>
+        <v>33.107246116489122</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,36 +1542,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="3">
-        <v>17.480378352190819</v>
-      </c>
-      <c r="C29" s="3">
-        <v>22.509733882889829</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3.0326392516618759</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2.904845185674088</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.3945950680788379</v>
+      <c r="B29" s="4">
+        <v>34.867834565583728</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.9316375172474114</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2.4983385626124521</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.63541568355449</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.7826606446697291</v>
       </c>
       <c r="G29">
-        <v>49.322191740495448</v>
+        <v>48.715886973667807</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1593,23 +1593,23 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3">
-        <v>63.108558205763188</v>
-      </c>
-      <c r="C30" s="3">
-        <v>117.7766164398934</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.9527144117099242</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.9309017998829283</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4.0188976196855659</v>
+      <c r="B30" s="4">
+        <v>370.95492228798707</v>
+      </c>
+      <c r="C30" s="4">
+        <v>86.622411145432494</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8.5237751559044348</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.5934068036354261</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.8654954518769902</v>
       </c>
       <c r="G30">
-        <v>198.78768847693499</v>
+        <v>473.56001084483648</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,36 +1618,36 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
-        <v>122.462605514777</v>
-      </c>
-      <c r="C31" s="3">
-        <v>15.81501947310953</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3.8120859646350191</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2.8530349557375279</v>
-      </c>
-      <c r="F31" s="3">
-        <v>4.0438738856118253</v>
+      <c r="B31" s="4">
+        <v>449.94611930986122</v>
+      </c>
+      <c r="C31" s="4">
+        <v>39.674175980582113</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8.1730400041319591</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.9683335064217937</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.8813064822061221</v>
       </c>
       <c r="G31">
-        <v>148.98661979387089</v>
+        <v>506.64297528320299</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>22</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1670,22 +1670,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>11.61137515931463</v>
+        <v>18.99018318887099</v>
       </c>
       <c r="C32" s="3">
-        <v>45.157552085539272</v>
+        <v>5.0775801552299544</v>
       </c>
       <c r="D32" s="3">
-        <v>5.6397450279682859</v>
+        <v>5.5916784014421541</v>
       </c>
       <c r="E32" s="3">
-        <v>3.2104747323217402</v>
+        <v>2.8861440009778789</v>
       </c>
       <c r="F32" s="3">
-        <v>4.1372856581453812</v>
+        <v>3.8975868546867609</v>
       </c>
       <c r="G32">
-        <v>69.756432663289274</v>
+        <v>36.443172601207728</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,36 +1694,36 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3">
-        <v>30.890010438720861</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10.834381743275429</v>
-      </c>
-      <c r="D33" s="3">
-        <v>17.272408754567049</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3.9791955676339388</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4.5601924598612253</v>
+      <c r="B33" s="4">
+        <v>384.28066675617191</v>
+      </c>
+      <c r="C33" s="4">
+        <v>94.280869618129316</v>
+      </c>
+      <c r="D33" s="4">
+        <v>27.598786857042601</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10.881798276195759</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.940944292633981</v>
       </c>
       <c r="G33">
-        <v>67.53618896405851</v>
+        <v>520.98306580017356</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>24.944690126577029</v>
+        <v>8.4973999643532583</v>
       </c>
       <c r="C34" s="3">
-        <v>5.2299868178641624</v>
+        <v>5.2884943725493887</v>
       </c>
       <c r="D34" s="3">
-        <v>3.131546350922922</v>
+        <v>5.4025010328894147</v>
       </c>
       <c r="E34" s="3">
-        <v>2.6855797262318308</v>
+        <v>3.5741635666880822</v>
       </c>
       <c r="F34" s="3">
-        <v>5.2627735300412306</v>
+        <v>3.9993118810307529</v>
       </c>
       <c r="G34">
-        <v>41.254576551637172</v>
+        <v>26.7618708175109</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1784,22 +1784,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>197.6618589928957</v>
+        <v>63.108558205763188</v>
       </c>
       <c r="C35" s="3">
-        <v>12.367349033826089</v>
+        <v>117.7766164398934</v>
       </c>
       <c r="D35" s="3">
-        <v>9.4358221958323369</v>
+        <v>7.9527144117099242</v>
       </c>
       <c r="E35" s="3">
-        <v>5.1252687033958768</v>
+        <v>5.9309017998829283</v>
       </c>
       <c r="F35" s="3">
-        <v>6.2171103684241276</v>
+        <v>4.0188976196855659</v>
       </c>
       <c r="G35">
-        <v>230.80740929437411</v>
+        <v>198.78768847693499</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1822,22 +1822,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>86.733005595096103</v>
+        <v>122.462605514777</v>
       </c>
       <c r="C36" s="3">
-        <v>20.924211838104661</v>
+        <v>15.81501947310953</v>
       </c>
       <c r="D36" s="3">
-        <v>4.583540369040902</v>
+        <v>3.8120859646350191</v>
       </c>
       <c r="E36" s="3">
-        <v>5.009734227156172</v>
+        <v>2.8530349557375279</v>
       </c>
       <c r="F36" s="3">
-        <v>7.5338902950045004</v>
+        <v>4.0438738856118253</v>
       </c>
       <c r="G36">
-        <v>124.7843823244023</v>
+        <v>148.98661979387089</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -1859,23 +1859,23 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3">
-        <v>133.23305459004439</v>
-      </c>
-      <c r="C37" s="3">
-        <v>8.9009031913308529</v>
-      </c>
-      <c r="D37" s="3">
-        <v>4.7503373510575937</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5.1313771470217606</v>
-      </c>
-      <c r="F37" s="3">
-        <v>8.6205819861003228</v>
+      <c r="B37" s="4">
+        <v>105.08481780051591</v>
+      </c>
+      <c r="C37" s="4">
+        <v>30.63412564519194</v>
+      </c>
+      <c r="D37" s="4">
+        <v>13.285939054284171</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9.4267695533246822</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.0457736917894422</v>
       </c>
       <c r="G37">
-        <v>160.63625426555501</v>
+        <v>162.4774257451061</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
@@ -1897,23 +1897,23 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3">
-        <v>299.43372812593088</v>
-      </c>
-      <c r="C38" s="3">
-        <v>39.81297971845008</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9.8905980088207475</v>
-      </c>
-      <c r="E38" s="3">
-        <v>7.4202404863400488</v>
-      </c>
-      <c r="F38" s="3">
-        <v>10.538778639040521</v>
+      <c r="B38" s="4">
+        <v>248.27346448276961</v>
+      </c>
+      <c r="C38" s="4">
+        <v>82.512412220581965</v>
+      </c>
+      <c r="D38" s="4">
+        <v>18.40918335627482</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6.0525304245677596</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4.0478570450437914</v>
       </c>
       <c r="G38">
-        <v>367.09632497858217</v>
+        <v>359.29544752923789</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>6</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1936,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>94.111531823281737</v>
+        <v>11.61137515931463</v>
       </c>
       <c r="C39" s="3">
-        <v>23.537590600974859</v>
+        <v>45.157552085539272</v>
       </c>
       <c r="D39" s="3">
-        <v>4.8076293233097784</v>
+        <v>5.6397450279682859</v>
       </c>
       <c r="E39" s="3">
-        <v>5.4696374775648309</v>
+        <v>3.2104747323217402</v>
       </c>
       <c r="F39" s="3">
-        <v>10.62225570511859</v>
+        <v>4.1372856581453812</v>
       </c>
       <c r="G39">
-        <v>138.54864493024979</v>
+        <v>69.756432663289274</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>167.85223571089639</v>
+        <v>85.735189482771787</v>
       </c>
       <c r="C40" s="3">
-        <v>39.006232778324673</v>
+        <v>41.694785849242358</v>
       </c>
       <c r="D40" s="3">
-        <v>5.9772619368677384</v>
+        <v>5.8602114790723707</v>
       </c>
       <c r="E40" s="3">
-        <v>8.4167501700658427</v>
+        <v>3.8871935366741122</v>
       </c>
       <c r="F40" s="3">
-        <v>11.477219511407929</v>
+        <v>4.1866738760929643</v>
       </c>
       <c r="G40">
-        <v>232.72970010756259</v>
+        <v>141.3640542238536</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,36 +1998,36 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="3">
-        <v>36.225708091857307</v>
-      </c>
-      <c r="C41" s="3">
-        <v>39.348321159493999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>9.0485075459655846</v>
-      </c>
-      <c r="E41" s="3">
-        <v>11.166676922657331</v>
-      </c>
-      <c r="F41" s="3">
-        <v>18.379046966686762</v>
+      <c r="B41" s="4">
+        <v>24.287251437969839</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7.040925243710956</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.6956888157797776</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4.097716057068471</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4.2372479878208393</v>
       </c>
       <c r="G41">
-        <v>114.168260686661</v>
+        <v>44.358829542349881</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>13</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2050,22 +2050,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>43.497021582157522</v>
+        <v>22.699025543180511</v>
       </c>
       <c r="C42" s="3">
-        <v>4.1668437047698568</v>
+        <v>60.179268807600039</v>
       </c>
       <c r="D42" s="3">
-        <v>3.261594061312707</v>
+        <v>12.948650150702701</v>
       </c>
       <c r="E42" s="3">
-        <v>8.619342766115448</v>
+        <v>3.7028117214037022</v>
       </c>
       <c r="F42" s="3">
-        <v>23.575649267925041</v>
+        <v>4.310515710898926</v>
       </c>
       <c r="G42">
-        <v>83.12045138228055</v>
+        <v>103.8402719337858</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,36 +2074,36 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3">
-        <v>200.67463168854209</v>
-      </c>
-      <c r="C43" s="3">
-        <v>34.784260998347818</v>
-      </c>
-      <c r="D43" s="3">
-        <v>13.55142477972446</v>
-      </c>
-      <c r="E43" s="3">
-        <v>11.28172405616821</v>
-      </c>
-      <c r="F43" s="3">
-        <v>24.115767630541391</v>
+      <c r="B43" s="4">
+        <v>22.285555766977438</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.5301810698839517</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11.121033942730991</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.256458303349973</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4.3678715185936907</v>
       </c>
       <c r="G43">
-        <v>284.40780915332402</v>
+        <v>49.56110060153604</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>21</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,22 +2126,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>36.129678025708728</v>
+        <v>14.158915946206561</v>
       </c>
       <c r="C44" s="3">
-        <v>33.546000619513748</v>
+        <v>5.2915929364418712</v>
       </c>
       <c r="D44" s="3">
-        <v>7.2897440266315963</v>
+        <v>3.8893617774042788</v>
       </c>
       <c r="E44" s="3">
-        <v>11.883636178170949</v>
+        <v>3.038128959658406</v>
       </c>
       <c r="F44" s="3">
-        <v>31.48652631066134</v>
+        <v>4.4083835862418992</v>
       </c>
       <c r="G44">
-        <v>120.33558516068641</v>
+        <v>30.786383205953019</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2164,22 +2164,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>122.7673044995955</v>
+        <v>30.890010438720861</v>
       </c>
       <c r="C45" s="3">
-        <v>21.891746707853908</v>
+        <v>10.834381743275429</v>
       </c>
       <c r="D45" s="3">
-        <v>14.407923047736659</v>
+        <v>17.272408754567049</v>
       </c>
       <c r="E45" s="3">
-        <v>27.376657938314221</v>
+        <v>3.9791955676339388</v>
       </c>
       <c r="F45" s="3">
-        <v>47.095571629024221</v>
+        <v>4.5601924598612253</v>
       </c>
       <c r="G45">
-        <v>233.5392038225246</v>
+        <v>67.53618896405851</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2201,23 +2201,23 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3">
-        <v>76.090572756892868</v>
-      </c>
-      <c r="C46" s="3">
-        <v>21.821337754858462</v>
-      </c>
-      <c r="D46" s="3">
-        <v>40.583753139013311</v>
-      </c>
-      <c r="E46" s="3">
-        <v>33.177702803307668</v>
-      </c>
-      <c r="F46" s="3">
-        <v>57.952621009383257</v>
+      <c r="B46" s="4">
+        <v>87.53847369977828</v>
+      </c>
+      <c r="C46" s="4">
+        <v>26.190516376407579</v>
+      </c>
+      <c r="D46" s="4">
+        <v>13.593938626867709</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10.06005869390428</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4.5737225060866891</v>
       </c>
       <c r="G46">
-        <v>229.62598746345569</v>
+        <v>141.9567099030445</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,36 +2226,36 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="3">
-        <v>321.33854015072188</v>
-      </c>
-      <c r="C47" s="3">
-        <v>38.804733126124383</v>
-      </c>
-      <c r="D47" s="3">
-        <v>5.3058505813870998</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3.1782613787596561</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3.5145686163670509</v>
+      <c r="B47" s="4">
+        <v>21.416528212064328</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5.1207864016057343</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2.908518885251858</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5.902576444283067</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5.0093639301551161</v>
       </c>
       <c r="G47">
-        <v>372.14195385336012</v>
+        <v>40.357773873360102</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>28.129320616784209</v>
-      </c>
-      <c r="C48" s="3">
-        <v>63.45077228522139</v>
-      </c>
-      <c r="D48" s="3">
-        <v>7.2267475364103824</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4.186879530167535</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5.7632711626403728</v>
+      <c r="B48" s="4">
+        <v>118.8170415296038</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9.3619378862208684</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3.6383940198838509</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.672091167706625</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5.1787189454905782</v>
       </c>
       <c r="G48">
-        <v>108.7569911312239</v>
+        <v>140.66818354890569</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>14</v>
@@ -2316,22 +2316,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>28.129320616784209</v>
+        <v>24.944690126577029</v>
       </c>
       <c r="C49" s="3">
-        <v>63.45077228522139</v>
+        <v>5.2299868178641624</v>
       </c>
       <c r="D49" s="3">
-        <v>7.2267475364103824</v>
+        <v>3.131546350922922</v>
       </c>
       <c r="E49" s="3">
-        <v>4.186879530167535</v>
+        <v>2.6855797262318308</v>
       </c>
       <c r="F49" s="3">
-        <v>5.7632711626403728</v>
+        <v>5.2627735300412306</v>
       </c>
       <c r="G49">
-        <v>108.7569911312239</v>
+        <v>41.254576551637172</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,36 +2340,36 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>28.129320616784209</v>
-      </c>
-      <c r="C50" s="3">
-        <v>63.45077228522139</v>
-      </c>
-      <c r="D50" s="3">
-        <v>7.2267475364103824</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4.186879530167535</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5.7632711626403728</v>
+      <c r="B50" s="4">
+        <v>7.106653687121252</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4.5665093743450438</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4.2204167796179366</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4.2474554945585874</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5.4690041115450843</v>
       </c>
       <c r="G50">
-        <v>108.7569911312239</v>
+        <v>25.610039447187901</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>3</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2392,22 +2392,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>28.129320616784209</v>
+        <v>46.237250734861718</v>
       </c>
       <c r="C51" s="3">
-        <v>63.45077228522139</v>
+        <v>25.059827196264859</v>
       </c>
       <c r="D51" s="3">
-        <v>7.2267475364103824</v>
+        <v>16.93409721675539</v>
       </c>
       <c r="E51" s="3">
-        <v>4.186879530167535</v>
+        <v>4.5887968952332958</v>
       </c>
       <c r="F51" s="3">
-        <v>5.7632711626403728</v>
+        <v>5.59671077710715</v>
       </c>
       <c r="G51">
-        <v>108.7569911312239</v>
+        <v>98.416682820222405</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,36 +2416,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>28.129320616784209</v>
-      </c>
-      <c r="C52" s="3">
-        <v>63.45077228522139</v>
-      </c>
-      <c r="D52" s="3">
-        <v>7.2267475364103824</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4.186879530167535</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5.7632711626403728</v>
+      <c r="B52" s="4">
+        <v>373.01211424209771</v>
+      </c>
+      <c r="C52" s="4">
+        <v>127.7389754786836</v>
+      </c>
+      <c r="D52" s="4">
+        <v>23.76142273298175</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7.2521393114572952</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5.6920364140914721</v>
       </c>
       <c r="G52">
-        <v>108.7569911312239</v>
+        <v>537.45668817931187</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>9</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>14</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -2620,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>35.093325536540149</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C57" s="3">
-        <v>49.432658237145517</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D57" s="3">
-        <v>4.2985949432430086</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E57" s="3">
-        <v>4.8828441736035906</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F57" s="3">
-        <v>6.1889579679624314</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G57">
-        <v>99.896380858494709</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>575.61758328936492</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C58" s="3">
-        <v>56.024880946845293</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D58" s="3">
-        <v>10.90351641936412</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E58" s="3">
-        <v>7.6223985564121994</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F58" s="3">
-        <v>7.8869861704418733</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G58">
-        <v>658.05536538242848</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2696,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>1620.859124565156</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C59" s="3">
-        <v>103.88989438106221</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D59" s="3">
-        <v>10.805463980880189</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E59" s="3">
-        <v>6.3108843900667404</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F59" s="3">
-        <v>8.5228407875999714</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G59">
-        <v>1750.388208104765</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2734,22 +2734,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>135.8344170297282</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C60" s="3">
-        <v>125.5983490412913</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D60" s="3">
-        <v>9.7446387430531267</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E60" s="3">
-        <v>10.317186256204501</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F60" s="3">
-        <v>8.7714056320886069</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G60">
-        <v>290.26599670236573</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2772,22 +2772,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>32.370111759555428</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C61" s="3">
-        <v>30.490670317001591</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D61" s="3">
-        <v>12.24473483693435</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E61" s="3">
-        <v>7.1309421731123503</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F61" s="3">
-        <v>10.144930691063371</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G61">
-        <v>92.38138977766711</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2809,23 +2809,23 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="3">
-        <v>120.7217861750909</v>
-      </c>
-      <c r="C62" s="3">
-        <v>53.186521770597423</v>
-      </c>
-      <c r="D62" s="3">
-        <v>5.4011734530623414</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7.8091674547797822</v>
-      </c>
-      <c r="F62" s="3">
-        <v>11.035806590174371</v>
+      <c r="B62" s="4">
+        <v>24.660464795421468</v>
+      </c>
+      <c r="C62" s="4">
+        <v>7.567505411475925</v>
+      </c>
+      <c r="D62" s="4">
+        <v>12.006920400753231</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7.6725114781293842</v>
+      </c>
+      <c r="F62" s="4">
+        <v>5.8001635180489277</v>
       </c>
       <c r="G62">
-        <v>198.15445544370479</v>
+        <v>57.70756560382894</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,36 +2834,36 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>11</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>47.174640503744733</v>
-      </c>
-      <c r="C63" s="3">
-        <v>46.858009484795787</v>
-      </c>
-      <c r="D63" s="3">
-        <v>8.2430871706721476</v>
-      </c>
-      <c r="E63" s="3">
-        <v>10.22831884111725</v>
-      </c>
-      <c r="F63" s="3">
-        <v>19.69203446385534</v>
+      <c r="B63" s="4">
+        <v>18.005305134815629</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.7624590076030788</v>
+      </c>
+      <c r="D63" s="4">
+        <v>12.34800879057749</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8.4816418387023322</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5.8400802311818936</v>
       </c>
       <c r="G63">
-        <v>132.19609046418529</v>
+        <v>50.437495002880418</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>14</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2886,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>24.455396862292421</v>
+        <v>60.676974175042922</v>
       </c>
       <c r="C64" s="3">
-        <v>40.173126367294593</v>
+        <v>14.701655677482419</v>
       </c>
       <c r="D64" s="3">
-        <v>5.0234583304750258</v>
+        <v>45.672540485402003</v>
       </c>
       <c r="E64" s="3">
-        <v>8.7373436140794425</v>
+        <v>8.9484139792122015</v>
       </c>
       <c r="F64" s="3">
-        <v>19.95893246129382</v>
+        <v>5.9766220793778153</v>
       </c>
       <c r="G64">
-        <v>98.348257635435317</v>
+        <v>135.97620639651731</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2924,22 +2924,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>121.0363689497585</v>
+        <v>15.341890597707071</v>
       </c>
       <c r="C65" s="3">
-        <v>25.037564903113399</v>
+        <v>20.33263192361628</v>
       </c>
       <c r="D65" s="3">
-        <v>16.931251382701952</v>
+        <v>3.1465947031954058</v>
       </c>
       <c r="E65" s="3">
-        <v>16.71750665665958</v>
+        <v>4.5670948747670366</v>
       </c>
       <c r="F65" s="3">
-        <v>31.307491935641838</v>
+        <v>5.9853908119277834</v>
       </c>
       <c r="G65">
-        <v>211.03018382787539</v>
+        <v>49.373602911213567</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,22 +2962,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>167.64388657720849</v>
+        <v>35.093325536540149</v>
       </c>
       <c r="C66" s="3">
-        <v>45.685996954399457</v>
+        <v>49.432658237145517</v>
       </c>
       <c r="D66" s="3">
-        <v>19.21906919453593</v>
+        <v>4.2985949432430086</v>
       </c>
       <c r="E66" s="3">
-        <v>30.504265584095499</v>
+        <v>4.8828441736035906</v>
       </c>
       <c r="F66" s="3">
-        <v>79.747586894803533</v>
+        <v>6.1889579679624314</v>
       </c>
       <c r="G66">
-        <v>342.80080520504288</v>
+        <v>99.896380858494709</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>69.001670817666607</v>
+        <v>197.6618589928957</v>
       </c>
       <c r="C67" s="3">
-        <v>66.059832790468732</v>
+        <v>12.367349033826089</v>
       </c>
       <c r="D67" s="3">
-        <v>33.042092535624953</v>
+        <v>9.4358221958323369</v>
       </c>
       <c r="E67" s="3">
-        <v>49.687944032312011</v>
+        <v>5.1252687033958768</v>
       </c>
       <c r="F67" s="3">
-        <v>92.029372579642114</v>
+        <v>6.2171103684241276</v>
       </c>
       <c r="G67">
-        <v>309.8209127557144</v>
+        <v>230.80740929437411</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,36 +3024,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="3">
-        <v>5816.9929199657836</v>
-      </c>
-      <c r="C68" s="3">
-        <v>937.6143179359816</v>
-      </c>
-      <c r="D68" s="3">
-        <v>474.83518925456559</v>
-      </c>
-      <c r="E68" s="3">
-        <v>530.36650149007494</v>
-      </c>
-      <c r="F68" s="3">
-        <v>315.40030212739748</v>
+      <c r="B68" s="4">
+        <v>62.831225691383551</v>
+      </c>
+      <c r="C68" s="4">
+        <v>18.107710672907881</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6.6984857170996506</v>
+      </c>
+      <c r="E68" s="4">
+        <v>6.4805688222789861</v>
+      </c>
+      <c r="F68" s="4">
+        <v>6.2864322525421814</v>
       </c>
       <c r="G68">
-        <v>8075.209230773803</v>
+        <v>100.4044231562122</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>14</v>
@@ -3076,22 +3076,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="4">
-        <v>19.990110726282978</v>
+        <v>158.2413178074529</v>
       </c>
       <c r="C69" s="4">
-        <v>10.82434936022028</v>
+        <v>36.827971448302698</v>
       </c>
       <c r="D69" s="4">
-        <v>8.9566116271380913</v>
+        <v>13.4182715331906</v>
       </c>
       <c r="E69" s="4">
-        <v>2.648243463636017</v>
+        <v>8.9909340584605673</v>
       </c>
       <c r="F69" s="4">
-        <v>1.48586460357341</v>
+        <v>6.2901865677423361</v>
       </c>
       <c r="G69">
-        <v>43.905179780850773</v>
+        <v>223.7686814151491</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K69" s="4">
         <v>1</v>
@@ -3113,23 +3113,23 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="4">
-        <v>11.97086452863752</v>
-      </c>
-      <c r="C70" s="4">
-        <v>8.1559585506369743</v>
-      </c>
-      <c r="D70" s="4">
-        <v>6.8758223113514969</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2.2126661526149221</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1.5351679462287799</v>
+      <c r="B70" s="3">
+        <v>194.59602070109551</v>
+      </c>
+      <c r="C70" s="3">
+        <v>9.7010195333590836</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7.6882480582321389</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6.2548704932621009</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6.3591710013247189</v>
       </c>
       <c r="G70">
-        <v>30.750479489469701</v>
+        <v>224.59932978727349</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>14</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
@@ -3151,23 +3151,23 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4">
-        <v>15.831304253214689</v>
-      </c>
-      <c r="C71" s="4">
-        <v>36.545879398560643</v>
-      </c>
-      <c r="D71" s="4">
-        <v>11.6996545866423</v>
-      </c>
-      <c r="E71" s="4">
-        <v>3.0770289719136379</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2.4710052313437911</v>
+      <c r="B71" s="3">
+        <v>37.674051868057212</v>
+      </c>
+      <c r="C71" s="3">
+        <v>15.541870591131939</v>
+      </c>
+      <c r="D71" s="3">
+        <v>22.143156937439969</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5.2544754046303934</v>
+      </c>
+      <c r="F71" s="3">
+        <v>7.0058108317261993</v>
       </c>
       <c r="G71">
-        <v>69.624872441675052</v>
+        <v>87.619365632985676</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>22</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>12</v>
@@ -3189,23 +3189,23 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4">
-        <v>14.354269983794911</v>
-      </c>
-      <c r="C72" s="4">
-        <v>4.0577875500212839</v>
-      </c>
-      <c r="D72" s="4">
-        <v>7.8189960216902641</v>
-      </c>
-      <c r="E72" s="4">
-        <v>3.8221368056653011</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2.811213396934428</v>
+      <c r="B72" s="3">
+        <v>38.337120648382893</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33.319929327869843</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5.7640365663127646</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4.9117107814548007</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7.1578322856147487</v>
       </c>
       <c r="G72">
-        <v>32.864403758106192</v>
+        <v>89.490629609635022</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
         <v>12</v>
@@ -3228,22 +3228,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="4">
-        <v>6.7088675151340533</v>
+        <v>227.65925339721639</v>
       </c>
       <c r="C73" s="4">
-        <v>4.1955282192033874</v>
+        <v>53.371987934050971</v>
       </c>
       <c r="D73" s="4">
-        <v>13.346507682725051</v>
+        <v>13.171104713649781</v>
       </c>
       <c r="E73" s="4">
-        <v>8.2366740363471287</v>
+        <v>7.7404345707430746</v>
       </c>
       <c r="F73" s="4">
-        <v>2.9515073597264809</v>
+        <v>7.2461055350877794</v>
       </c>
       <c r="G73">
-        <v>35.439084813136098</v>
+        <v>309.18888615074809</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K73" s="4">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,22 +3266,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>14.91732459380955</v>
+        <v>67.892702612251369</v>
       </c>
       <c r="C74" s="4">
-        <v>6.0041747264361947</v>
+        <v>17.54457856924736</v>
       </c>
       <c r="D74" s="4">
-        <v>4.8750412754883374</v>
+        <v>6.6032141905973702</v>
       </c>
       <c r="E74" s="4">
-        <v>3.6691023443045361</v>
+        <v>7.7227175656559179</v>
       </c>
       <c r="F74" s="4">
-        <v>3.6416031764505039</v>
+        <v>7.3178438341893361</v>
       </c>
       <c r="G74">
-        <v>33.107246116489122</v>
+        <v>107.08105677194141</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3304,22 +3304,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="4">
-        <v>384.28066675617191</v>
+        <v>41.67620019718462</v>
       </c>
       <c r="C75" s="4">
-        <v>94.280869618129316</v>
+        <v>5.0908443174903351</v>
       </c>
       <c r="D75" s="4">
-        <v>27.598786857042601</v>
+        <v>4.3998696967647266</v>
       </c>
       <c r="E75" s="4">
-        <v>10.881798276195759</v>
+        <v>7.0515223530279698</v>
       </c>
       <c r="F75" s="4">
-        <v>3.940944292633981</v>
+        <v>7.388163747078627</v>
       </c>
       <c r="G75">
-        <v>520.98306580017356</v>
+        <v>65.606600311546288</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K75" s="4">
         <v>1</v>
@@ -3342,22 +3342,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>22.285555766977438</v>
+        <v>52.51639230667935</v>
       </c>
       <c r="C76" s="4">
-        <v>7.5301810698839517</v>
+        <v>12.40032017617658</v>
       </c>
       <c r="D76" s="4">
-        <v>11.121033942730991</v>
+        <v>9.3572787302815943</v>
       </c>
       <c r="E76" s="4">
-        <v>4.256458303349973</v>
+        <v>7.4591672834967913</v>
       </c>
       <c r="F76" s="4">
-        <v>4.3678715185936907</v>
+        <v>7.396699639305905</v>
       </c>
       <c r="G76">
-        <v>49.56110060153604</v>
+        <v>89.129858135940211</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,36 +3366,36 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="4">
-        <v>21.416528212064328</v>
-      </c>
-      <c r="C77" s="4">
-        <v>5.1207864016057343</v>
-      </c>
-      <c r="D77" s="4">
-        <v>2.908518885251858</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5.902576444283067</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5.0093639301551161</v>
+      <c r="B77" s="3">
+        <v>86.733005595096103</v>
+      </c>
+      <c r="C77" s="3">
+        <v>20.924211838104661</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4.583540369040902</v>
+      </c>
+      <c r="E77" s="3">
+        <v>5.009734227156172</v>
+      </c>
+      <c r="F77" s="3">
+        <v>7.5338902950045004</v>
       </c>
       <c r="G77">
-        <v>40.357773873360102</v>
+        <v>124.7843823244023</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3406,11 +3406,11 @@
       <c r="J77">
         <v>17</v>
       </c>
-      <c r="K77" s="4">
-        <v>1</v>
+      <c r="K77" s="3">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3418,22 +3418,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>7.106653687121252</v>
+        <v>272.56582650704831</v>
       </c>
       <c r="C78" s="4">
-        <v>4.5665093743450438</v>
+        <v>10.077491824768201</v>
       </c>
       <c r="D78" s="4">
-        <v>4.2204167796179366</v>
+        <v>32.113455561374373</v>
       </c>
       <c r="E78" s="4">
-        <v>4.2474554945585874</v>
+        <v>10.96601655348913</v>
       </c>
       <c r="F78" s="4">
-        <v>5.4690041115450843</v>
+        <v>7.5519410510876739</v>
       </c>
       <c r="G78">
-        <v>25.610039447187901</v>
+        <v>333.27473149776768</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
@@ -3456,22 +3456,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>24.660464795421468</v>
+        <v>15.35448168464195</v>
       </c>
       <c r="C79" s="4">
-        <v>7.567505411475925</v>
+        <v>20.534490241644018</v>
       </c>
       <c r="D79" s="4">
-        <v>12.006920400753231</v>
+        <v>70.391589991171827</v>
       </c>
       <c r="E79" s="4">
-        <v>7.6725114781293842</v>
+        <v>11.771668805559999</v>
       </c>
       <c r="F79" s="4">
-        <v>5.8001635180489277</v>
+        <v>7.6024162846029704</v>
       </c>
       <c r="G79">
-        <v>57.70756560382894</v>
+        <v>125.6546470076208</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K79" s="4">
         <v>1</v>
@@ -3493,23 +3493,23 @@
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4">
-        <v>18.005305134815629</v>
-      </c>
-      <c r="C80" s="4">
-        <v>5.7624590076030788</v>
-      </c>
-      <c r="D80" s="4">
-        <v>12.34800879057749</v>
-      </c>
-      <c r="E80" s="4">
-        <v>8.4816418387023322</v>
-      </c>
-      <c r="F80" s="4">
-        <v>5.8400802311818936</v>
+      <c r="B80" s="3">
+        <v>106.55008017882599</v>
+      </c>
+      <c r="C80" s="3">
+        <v>31.446726110280281</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5.918865196873405</v>
+      </c>
+      <c r="E80" s="3">
+        <v>6.8880461206657699</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7.8434969148020999</v>
       </c>
       <c r="G80">
-        <v>50.437495002880418</v>
+        <v>158.64721452144749</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>12</v>
@@ -3531,23 +3531,23 @@
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="4">
-        <v>158.2413178074529</v>
-      </c>
-      <c r="C81" s="4">
-        <v>36.827971448302698</v>
-      </c>
-      <c r="D81" s="4">
-        <v>13.4182715331906</v>
-      </c>
-      <c r="E81" s="4">
-        <v>8.9909340584605673</v>
-      </c>
-      <c r="F81" s="4">
-        <v>6.2901865677423361</v>
+      <c r="B81" s="3">
+        <v>575.61758328936492</v>
+      </c>
+      <c r="C81" s="3">
+        <v>56.024880946845293</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10.90351641936412</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7.6223985564121994</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7.8869861704418733</v>
       </c>
       <c r="G81">
-        <v>223.7686814151491</v>
+        <v>658.05536538242848</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>21</v>
-      </c>
-      <c r="K81" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3570,22 +3570,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>41.67620019718462</v>
+        <v>35.191271499149821</v>
       </c>
       <c r="C82" s="4">
-        <v>5.0908443174903351</v>
+        <v>9.2335877681189089</v>
       </c>
       <c r="D82" s="4">
-        <v>4.3998696967647266</v>
+        <v>3.9053233591067711</v>
       </c>
       <c r="E82" s="4">
-        <v>7.0515223530279698</v>
+        <v>5.7975777920934277</v>
       </c>
       <c r="F82" s="4">
-        <v>7.388163747078627</v>
+        <v>7.9455862380707076</v>
       </c>
       <c r="G82">
-        <v>65.606600311546288</v>
+        <v>62.073346656539663</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K82" s="4">
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3608,22 +3608,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="4">
-        <v>272.56582650704831</v>
+        <v>216.32266214598019</v>
       </c>
       <c r="C83" s="4">
-        <v>10.077491824768201</v>
+        <v>54.908371571178719</v>
       </c>
       <c r="D83" s="4">
-        <v>32.113455561374373</v>
+        <v>9.5316363958388877</v>
       </c>
       <c r="E83" s="4">
-        <v>10.96601655348913</v>
+        <v>7.3275466917483048</v>
       </c>
       <c r="F83" s="4">
-        <v>7.5519410510876739</v>
+        <v>8.0132167462068242</v>
       </c>
       <c r="G83">
-        <v>333.27473149776768</v>
+        <v>296.10343355095301</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,36 +3632,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K83" s="4">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4">
-        <v>15.35448168464195</v>
-      </c>
-      <c r="C84" s="4">
-        <v>20.534490241644018</v>
-      </c>
-      <c r="D84" s="4">
-        <v>70.391589991171827</v>
-      </c>
-      <c r="E84" s="4">
-        <v>11.771668805559999</v>
-      </c>
-      <c r="F84" s="4">
-        <v>7.6024162846029704</v>
+      <c r="B84" s="3">
+        <v>9.9856386068533762</v>
+      </c>
+      <c r="C84" s="3">
+        <v>42.659318356464723</v>
+      </c>
+      <c r="D84" s="3">
+        <v>16.275321697327229</v>
+      </c>
+      <c r="E84" s="3">
+        <v>5.7393033552211206</v>
+      </c>
+      <c r="F84" s="3">
+        <v>8.2181549134415164</v>
       </c>
       <c r="G84">
-        <v>125.6546470076208</v>
+        <v>82.877736929307943</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>13</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>12</v>
@@ -3721,23 +3721,23 @@
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>17.002855223609671</v>
-      </c>
-      <c r="C86" s="4">
-        <v>8.4632253938238371</v>
-      </c>
-      <c r="D86" s="4">
-        <v>10.02307030327958</v>
-      </c>
-      <c r="E86" s="4">
-        <v>11.237697907904559</v>
-      </c>
-      <c r="F86" s="4">
-        <v>8.5959440767017874</v>
+      <c r="B86" s="3">
+        <v>1620.859124565156</v>
+      </c>
+      <c r="C86" s="3">
+        <v>103.88989438106221</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10.805463980880189</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6.3108843900667404</v>
+      </c>
+      <c r="F86" s="3">
+        <v>8.5228407875999714</v>
       </c>
       <c r="G86">
-        <v>55.322792905319432</v>
+        <v>1750.388208104765</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3760,22 +3760,22 @@
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <v>15.67590789601508</v>
+        <v>17.002855223609671</v>
       </c>
       <c r="C87" s="4">
-        <v>12.1209932373408</v>
+        <v>8.4632253938238371</v>
       </c>
       <c r="D87" s="4">
-        <v>58.45950692873528</v>
+        <v>10.02307030327958</v>
       </c>
       <c r="E87" s="4">
-        <v>10.94334687021858</v>
+        <v>11.237697907904559</v>
       </c>
       <c r="F87" s="4">
-        <v>10.60825575137372</v>
+        <v>8.5959440767017874</v>
       </c>
       <c r="G87">
-        <v>107.80801068368351</v>
+        <v>55.322792905319432</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K87" s="4">
         <v>1</v>
@@ -3798,22 +3798,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>10.755386936316439</v>
+        <v>121.49044754806771</v>
       </c>
       <c r="C88" s="4">
-        <v>5.370486753461142</v>
+        <v>17.534575813182158</v>
       </c>
       <c r="D88" s="4">
-        <v>6.3604958052618716</v>
+        <v>3.9882306584565299</v>
       </c>
       <c r="E88" s="4">
-        <v>8.337549914509804</v>
+        <v>5.9934670742396721</v>
       </c>
       <c r="F88" s="4">
-        <v>10.856218757528699</v>
+        <v>8.6030984069864598</v>
       </c>
       <c r="G88">
-        <v>41.680138167077963</v>
+        <v>157.6098195009325</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,36 +3822,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K88" s="4">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4">
-        <v>1619.007282901382</v>
-      </c>
-      <c r="C89" s="4">
-        <v>276.00194996002062</v>
-      </c>
-      <c r="D89" s="4">
-        <v>37.29170043103877</v>
-      </c>
-      <c r="E89" s="4">
-        <v>21.15915702737901</v>
-      </c>
-      <c r="F89" s="4">
-        <v>11.31996271874749</v>
+      <c r="B89" s="3">
+        <v>133.23305459004439</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8.9009031913308529</v>
+      </c>
+      <c r="D89" s="3">
+        <v>4.7503373510575937</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5.1313771470217606</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8.6205819861003228</v>
       </c>
       <c r="G89">
-        <v>1964.780053038568</v>
+        <v>160.63625426555501</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,36 +3860,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>18</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4">
-        <v>9.2687704930449648</v>
-      </c>
-      <c r="C90" s="4">
-        <v>14.573160813988091</v>
-      </c>
-      <c r="D90" s="4">
-        <v>6.3473497100615246</v>
-      </c>
-      <c r="E90" s="4">
-        <v>9.4151449646073502</v>
-      </c>
-      <c r="F90" s="4">
-        <v>13.74325566153262</v>
+      <c r="B90" s="3">
+        <v>135.8344170297282</v>
+      </c>
+      <c r="C90" s="3">
+        <v>125.5983490412913</v>
+      </c>
+      <c r="D90" s="3">
+        <v>9.7446387430531267</v>
+      </c>
+      <c r="E90" s="3">
+        <v>10.317186256204501</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8.7714056320886069</v>
       </c>
       <c r="G90">
-        <v>53.347681643234537</v>
+        <v>290.26599670236573</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>6</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3912,22 +3912,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="4">
-        <v>400.90020707042072</v>
+        <v>333.78285639961388</v>
       </c>
       <c r="C91" s="4">
-        <v>86.591564662315818</v>
+        <v>19.29675507454764</v>
       </c>
       <c r="D91" s="4">
-        <v>40.348228321651789</v>
+        <v>13.73151205126492</v>
       </c>
       <c r="E91" s="4">
-        <v>18.765959334771509</v>
+        <v>10.81129198075733</v>
       </c>
       <c r="F91" s="4">
-        <v>16.81108059570801</v>
+        <v>8.7805243600002481</v>
       </c>
       <c r="G91">
-        <v>563.41703998486787</v>
+        <v>386.40293986618423</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K91" s="4">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3950,22 +3950,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>14.48233316645107</v>
+        <v>205.2247871099996</v>
       </c>
       <c r="C92" s="4">
-        <v>10.53444491131224</v>
+        <v>30.580542834484842</v>
       </c>
       <c r="D92" s="4">
-        <v>34.398095043618483</v>
+        <v>5.0032246532223539</v>
       </c>
       <c r="E92" s="4">
-        <v>23.520746162423841</v>
+        <v>6.6910232260389026</v>
       </c>
       <c r="F92" s="4">
-        <v>27.926321806071321</v>
+        <v>8.9272081210198344</v>
       </c>
       <c r="G92">
-        <v>110.86194108987701</v>
+        <v>256.42678594476553</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3988,22 +3988,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>71.342560342995512</v>
+        <v>22.944363893642478</v>
       </c>
       <c r="C93" s="4">
-        <v>15.872131456550941</v>
+        <v>7.1704635040255749</v>
       </c>
       <c r="D93" s="4">
-        <v>3.2473321178748029</v>
+        <v>6.6087480651367212</v>
       </c>
       <c r="E93" s="4">
-        <v>1.6825649218121439</v>
+        <v>15.1546636964837</v>
       </c>
       <c r="F93" s="4">
-        <v>1.250579514458253</v>
+        <v>9.1119953064647774</v>
       </c>
       <c r="G93">
-        <v>93.395168353691673</v>
+        <v>60.990234465753261</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K93" s="4">
         <v>1</v>
@@ -4026,22 +4026,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>197.19557694820219</v>
+        <v>1899.1412705960261</v>
       </c>
       <c r="C94" s="4">
-        <v>38.771006129642629</v>
+        <v>304.92640617257388</v>
       </c>
       <c r="D94" s="4">
-        <v>7.1547440618584659</v>
+        <v>69.901975761827444</v>
       </c>
       <c r="E94" s="4">
-        <v>2.6539789438009032</v>
+        <v>27.153892288588271</v>
       </c>
       <c r="F94" s="4">
-        <v>2.0292098798371239</v>
+        <v>10.06761782653726</v>
       </c>
       <c r="G94">
-        <v>247.80451596334129</v>
+        <v>2311.191162645553</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,36 +4050,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K94" s="4">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="4">
-        <v>7.0183899513316126</v>
-      </c>
-      <c r="C95" s="4">
-        <v>3.9796029988236459</v>
-      </c>
-      <c r="D95" s="4">
-        <v>2.973893122103676</v>
-      </c>
-      <c r="E95" s="4">
-        <v>2.2464384864415781</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2.59547467777185</v>
+      <c r="B95" s="3">
+        <v>32.370111759555428</v>
+      </c>
+      <c r="C95" s="3">
+        <v>30.490670317001591</v>
+      </c>
+      <c r="D95" s="3">
+        <v>12.24473483693435</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7.1309421731123503</v>
+      </c>
+      <c r="F95" s="3">
+        <v>10.144930691063371</v>
       </c>
       <c r="G95">
-        <v>18.813799236472359</v>
+        <v>92.38138977766711</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,36 +4088,36 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="4">
-        <v>127.96505238696621</v>
-      </c>
-      <c r="C96" s="4">
-        <v>30.396849133836689</v>
-      </c>
-      <c r="D96" s="4">
-        <v>4.2872678904591428</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2.4011192685527001</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2.7813525285257459</v>
+      <c r="B96" s="3">
+        <v>299.43372812593088</v>
+      </c>
+      <c r="C96" s="3">
+        <v>39.81297971845008</v>
+      </c>
+      <c r="D96" s="3">
+        <v>9.8905980088207475</v>
+      </c>
+      <c r="E96" s="3">
+        <v>7.4202404863400488</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10.538778639040521</v>
       </c>
       <c r="G96">
-        <v>167.8316412083405</v>
+        <v>367.09632497858217</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>10</v>
-      </c>
-      <c r="K96" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -4140,22 +4140,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>58.451619248493913</v>
+        <v>164.80107522892479</v>
       </c>
       <c r="C97" s="4">
-        <v>24.798287654160429</v>
+        <v>30.34323873438635</v>
       </c>
       <c r="D97" s="4">
-        <v>9.4370665448428017</v>
+        <v>7.3318751968528746</v>
       </c>
       <c r="E97" s="4">
-        <v>4.1571136016163086</v>
+        <v>9.292194659170633</v>
       </c>
       <c r="F97" s="4">
-        <v>2.9920657012009459</v>
+        <v>10.57172052470386</v>
       </c>
       <c r="G97">
-        <v>99.836152750314412</v>
+        <v>222.34010434403851</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K97" s="4">
         <v>1</v>
@@ -4178,22 +4178,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>34.867834565583728</v>
+        <v>15.67590789601508</v>
       </c>
       <c r="C98" s="4">
-        <v>4.9316375172474114</v>
+        <v>12.1209932373408</v>
       </c>
       <c r="D98" s="4">
-        <v>2.4983385626124521</v>
+        <v>58.45950692873528</v>
       </c>
       <c r="E98" s="4">
-        <v>2.63541568355449</v>
+        <v>10.94334687021858</v>
       </c>
       <c r="F98" s="4">
-        <v>3.7826606446697291</v>
+        <v>10.60825575137372</v>
       </c>
       <c r="G98">
-        <v>48.715886973667807</v>
+        <v>107.80801068368351</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,36 +4202,36 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="4">
-        <v>449.94611930986122</v>
-      </c>
-      <c r="C99" s="4">
-        <v>39.674175980582113</v>
-      </c>
-      <c r="D99" s="4">
-        <v>8.1730400041319591</v>
-      </c>
-      <c r="E99" s="4">
-        <v>4.9683335064217937</v>
-      </c>
-      <c r="F99" s="4">
-        <v>3.8813064822061221</v>
+      <c r="B99" s="3">
+        <v>94.111531823281737</v>
+      </c>
+      <c r="C99" s="3">
+        <v>23.537590600974859</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4.8076293233097784</v>
+      </c>
+      <c r="E99" s="3">
+        <v>5.4696374775648309</v>
+      </c>
+      <c r="F99" s="3">
+        <v>10.62225570511859</v>
       </c>
       <c r="G99">
-        <v>506.64297528320299</v>
+        <v>138.54864493024979</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>18</v>
-      </c>
-      <c r="K99" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
       </c>
       <c r="L99" t="s">
         <v>13</v>
@@ -4254,22 +4254,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>105.08481780051591</v>
+        <v>10.755386936316439</v>
       </c>
       <c r="C100" s="4">
-        <v>30.63412564519194</v>
+        <v>5.370486753461142</v>
       </c>
       <c r="D100" s="4">
-        <v>13.285939054284171</v>
+        <v>6.3604958052618716</v>
       </c>
       <c r="E100" s="4">
-        <v>9.4267695533246822</v>
+        <v>8.337549914509804</v>
       </c>
       <c r="F100" s="4">
-        <v>4.0457736917894422</v>
+        <v>10.856218757528699</v>
       </c>
       <c r="G100">
-        <v>162.4774257451061</v>
+        <v>41.680138167077963</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,36 +4278,36 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K100" s="4">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4">
-        <v>248.27346448276961</v>
-      </c>
-      <c r="C101" s="4">
-        <v>82.512412220581965</v>
-      </c>
-      <c r="D101" s="4">
-        <v>18.40918335627482</v>
-      </c>
-      <c r="E101" s="4">
-        <v>6.0525304245677596</v>
-      </c>
-      <c r="F101" s="4">
-        <v>4.0478570450437914</v>
+      <c r="B101" s="3">
+        <v>120.7217861750909</v>
+      </c>
+      <c r="C101" s="3">
+        <v>53.186521770597423</v>
+      </c>
+      <c r="D101" s="3">
+        <v>5.4011734530623414</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7.8091674547797822</v>
+      </c>
+      <c r="F101" s="3">
+        <v>11.035806590174371</v>
       </c>
       <c r="G101">
-        <v>359.29544752923789</v>
+        <v>198.15445544370479</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,22 +4330,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>24.287251437969839</v>
+        <v>286.47881963685819</v>
       </c>
       <c r="C102" s="4">
-        <v>7.040925243710956</v>
+        <v>62.733832883639941</v>
       </c>
       <c r="D102" s="4">
-        <v>4.6956888157797776</v>
+        <v>9.2443346946499467</v>
       </c>
       <c r="E102" s="4">
-        <v>4.097716057068471</v>
+        <v>8.6946538731771597</v>
       </c>
       <c r="F102" s="4">
-        <v>4.2372479878208393</v>
+        <v>11.07675712018424</v>
       </c>
       <c r="G102">
-        <v>44.358829542349881</v>
+        <v>378.22839820850959</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K102" s="4">
         <v>1</v>
@@ -4368,22 +4368,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>35.191271499149821</v>
+        <v>1619.007282901382</v>
       </c>
       <c r="C103" s="4">
-        <v>9.2335877681189089</v>
+        <v>276.00194996002062</v>
       </c>
       <c r="D103" s="4">
-        <v>3.9053233591067711</v>
+        <v>37.29170043103877</v>
       </c>
       <c r="E103" s="4">
-        <v>5.7975777920934277</v>
+        <v>21.15915702737901</v>
       </c>
       <c r="F103" s="4">
-        <v>7.9455862380707076</v>
+        <v>11.31996271874749</v>
       </c>
       <c r="G103">
-        <v>62.073346656539663</v>
+        <v>1964.780053038568</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,36 +4392,36 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K103" s="4">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="4">
-        <v>333.78285639961388</v>
-      </c>
-      <c r="C104" s="4">
-        <v>19.29675507454764</v>
-      </c>
-      <c r="D104" s="4">
-        <v>13.73151205126492</v>
-      </c>
-      <c r="E104" s="4">
-        <v>10.81129198075733</v>
-      </c>
-      <c r="F104" s="4">
-        <v>8.7805243600002481</v>
+      <c r="B104" s="3">
+        <v>167.85223571089639</v>
+      </c>
+      <c r="C104" s="3">
+        <v>39.006232778324673</v>
+      </c>
+      <c r="D104" s="3">
+        <v>5.9772619368677384</v>
+      </c>
+      <c r="E104" s="3">
+        <v>8.4167501700658427</v>
+      </c>
+      <c r="F104" s="3">
+        <v>11.477219511407929</v>
       </c>
       <c r="G104">
-        <v>386.40293986618423</v>
+        <v>232.72970010756259</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>26</v>
-      </c>
-      <c r="K104" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>13</v>
@@ -4444,22 +4444,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>205.2247871099996</v>
+        <v>181.4650743217565</v>
       </c>
       <c r="C105" s="4">
-        <v>30.580542834484842</v>
+        <v>37.741501539068878</v>
       </c>
       <c r="D105" s="4">
-        <v>5.0032246532223539</v>
+        <v>9.6317508674476731</v>
       </c>
       <c r="E105" s="4">
-        <v>6.6910232260389026</v>
+        <v>7.6917952939263188</v>
       </c>
       <c r="F105" s="4">
-        <v>8.9272081210198344</v>
+        <v>11.5959282315842</v>
       </c>
       <c r="G105">
-        <v>256.42678594476553</v>
+        <v>248.12605025378349</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K105" s="4">
         <v>1</v>
@@ -4482,22 +4482,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>22.944363893642478</v>
+        <v>394.15308638282897</v>
       </c>
       <c r="C106" s="4">
-        <v>7.1704635040255749</v>
+        <v>69.514811941213651</v>
       </c>
       <c r="D106" s="4">
-        <v>6.6087480651367212</v>
+        <v>9.4581039166154763</v>
       </c>
       <c r="E106" s="4">
-        <v>15.1546636964837</v>
+        <v>11.594875664123579</v>
       </c>
       <c r="F106" s="4">
-        <v>9.1119953064647774</v>
+        <v>13.100084713513681</v>
       </c>
       <c r="G106">
-        <v>60.990234465753261</v>
+        <v>497.82096261829543</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4520,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>164.80107522892479</v>
+        <v>9.2687704930449648</v>
       </c>
       <c r="C107" s="4">
-        <v>30.34323873438635</v>
+        <v>14.573160813988091</v>
       </c>
       <c r="D107" s="4">
-        <v>7.3318751968528746</v>
+        <v>6.3473497100615246</v>
       </c>
       <c r="E107" s="4">
-        <v>9.292194659170633</v>
+        <v>9.4151449646073502</v>
       </c>
       <c r="F107" s="4">
-        <v>10.57172052470386</v>
+        <v>13.74325566153262</v>
       </c>
       <c r="G107">
-        <v>222.34010434403851</v>
+        <v>53.347681643234537</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,36 +4544,36 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="4">
-        <v>286.47881963685819</v>
-      </c>
-      <c r="C108" s="4">
-        <v>62.733832883639941</v>
-      </c>
-      <c r="D108" s="4">
-        <v>9.2443346946499467</v>
-      </c>
-      <c r="E108" s="4">
-        <v>8.6946538731771597</v>
-      </c>
-      <c r="F108" s="4">
-        <v>11.07675712018424</v>
+      <c r="B108" s="3">
+        <v>18.380947590355259</v>
+      </c>
+      <c r="C108" s="3">
+        <v>48.779107173800078</v>
+      </c>
+      <c r="D108" s="3">
+        <v>29.559409026668519</v>
+      </c>
+      <c r="E108" s="3">
+        <v>9.6582613019357755</v>
+      </c>
+      <c r="F108" s="3">
+        <v>14.67692079418903</v>
       </c>
       <c r="G108">
-        <v>378.22839820850959</v>
+        <v>121.05464588694871</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>4</v>
-      </c>
-      <c r="K108" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4596,22 +4596,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>181.4650743217565</v>
+        <v>40.199164789026732</v>
       </c>
       <c r="C109" s="4">
-        <v>37.741501539068878</v>
+        <v>13.5981870641006</v>
       </c>
       <c r="D109" s="4">
-        <v>9.6317508674476731</v>
+        <v>13.276783774291379</v>
       </c>
       <c r="E109" s="4">
-        <v>7.6917952939263188</v>
+        <v>12.26276658370522</v>
       </c>
       <c r="F109" s="4">
-        <v>11.5959282315842</v>
+        <v>15.467220781196421</v>
       </c>
       <c r="G109">
-        <v>248.12605025378349</v>
+        <v>94.804122992320359</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K109" s="4">
         <v>1</v>
@@ -4634,22 +4634,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>40.199164789026732</v>
+        <v>35.713182787370528</v>
       </c>
       <c r="C110" s="4">
-        <v>13.5981870641006</v>
+        <v>30.363437720752671</v>
       </c>
       <c r="D110" s="4">
-        <v>13.276783774291379</v>
+        <v>8.0397464645513619</v>
       </c>
       <c r="E110" s="4">
-        <v>12.26276658370522</v>
+        <v>8.3609828335958056</v>
       </c>
       <c r="F110" s="4">
-        <v>15.467220781196421</v>
+        <v>16.009271837844921</v>
       </c>
       <c r="G110">
-        <v>94.804122992320359</v>
+        <v>98.486621644115274</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K110" s="4">
         <v>1</v>
@@ -4672,22 +4672,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>35.713182787370528</v>
+        <v>400.90020707042072</v>
       </c>
       <c r="C111" s="4">
-        <v>30.363437720752671</v>
+        <v>86.591564662315818</v>
       </c>
       <c r="D111" s="4">
-        <v>8.0397464645513619</v>
+        <v>40.348228321651789</v>
       </c>
       <c r="E111" s="4">
-        <v>8.3609828335958056</v>
+        <v>18.765959334771509</v>
       </c>
       <c r="F111" s="4">
-        <v>16.009271837844921</v>
+        <v>16.81108059570801</v>
       </c>
       <c r="G111">
-        <v>98.486621644115274</v>
+        <v>563.41703998486787</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K111" s="4">
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4748,22 +4748,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>35.710756210770953</v>
+        <v>263.13344169372851</v>
       </c>
       <c r="C113" s="4">
-        <v>11.72102053840293</v>
+        <v>46.888744673383869</v>
       </c>
       <c r="D113" s="4">
-        <v>7.9033414621112072</v>
+        <v>12.94283646870619</v>
       </c>
       <c r="E113" s="4">
-        <v>23.15450011494417</v>
+        <v>13.24427946779349</v>
       </c>
       <c r="F113" s="4">
-        <v>23.076625016364218</v>
+        <v>18.144551127620598</v>
       </c>
       <c r="G113">
-        <v>101.56624334259349</v>
+        <v>354.35385343123249</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,36 +4772,36 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K113" s="4">
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="4">
-        <v>29.28032458399294</v>
-      </c>
-      <c r="C114" s="4">
-        <v>11.47164844298824</v>
-      </c>
-      <c r="D114" s="4">
-        <v>19.57592785893603</v>
-      </c>
-      <c r="E114" s="4">
-        <v>32.041980989795647</v>
-      </c>
-      <c r="F114" s="4">
-        <v>43.147275330963673</v>
+      <c r="B114" s="3">
+        <v>36.225708091857307</v>
+      </c>
+      <c r="C114" s="3">
+        <v>39.348321159493999</v>
+      </c>
+      <c r="D114" s="3">
+        <v>9.0485075459655846</v>
+      </c>
+      <c r="E114" s="3">
+        <v>11.166676922657331</v>
+      </c>
+      <c r="F114" s="3">
+        <v>18.379046966686762</v>
       </c>
       <c r="G114">
-        <v>135.5171572066765</v>
+        <v>114.168260686661</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>23</v>
-      </c>
-      <c r="K114" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0</v>
       </c>
       <c r="L114" t="s">
         <v>13</v>
@@ -4823,23 +4823,23 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="4">
-        <v>151.6284676939126</v>
-      </c>
-      <c r="C115" s="4">
-        <v>70.464999506463798</v>
-      </c>
-      <c r="D115" s="4">
-        <v>58.406857031912878</v>
-      </c>
-      <c r="E115" s="4">
-        <v>75.191688517036695</v>
-      </c>
-      <c r="F115" s="4">
-        <v>49.390084822712069</v>
+      <c r="B115" s="3">
+        <v>47.174640503744733</v>
+      </c>
+      <c r="C115" s="3">
+        <v>46.858009484795787</v>
+      </c>
+      <c r="D115" s="3">
+        <v>8.2430871706721476</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10.22831884111725</v>
+      </c>
+      <c r="F115" s="3">
+        <v>19.69203446385534</v>
       </c>
       <c r="G115">
-        <v>405.08209757203809</v>
+        <v>132.19609046418529</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,36 +4848,36 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>16</v>
-      </c>
-      <c r="K115" s="4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="4">
-        <v>145.40600394973089</v>
-      </c>
-      <c r="C116" s="4">
-        <v>29.699784336400661</v>
-      </c>
-      <c r="D116" s="4">
-        <v>15.63458511619392</v>
-      </c>
-      <c r="E116" s="4">
-        <v>45.92632605761419</v>
-      </c>
-      <c r="F116" s="4">
-        <v>79.983243354805893</v>
+      <c r="B116" s="3">
+        <v>24.455396862292421</v>
+      </c>
+      <c r="C116" s="3">
+        <v>40.173126367294593</v>
+      </c>
+      <c r="D116" s="3">
+        <v>5.0234583304750258</v>
+      </c>
+      <c r="E116" s="3">
+        <v>8.7373436140794425</v>
+      </c>
+      <c r="F116" s="3">
+        <v>19.95893246129382</v>
       </c>
       <c r="G116">
-        <v>316.6499428147456</v>
+        <v>98.348257635435317</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>12</v>
-      </c>
-      <c r="K116" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4900,22 +4900,22 @@
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>176.7862812407414</v>
+        <v>37.683911638105158</v>
       </c>
       <c r="C117" s="4">
-        <v>57.907701741805127</v>
+        <v>11.65976404329445</v>
       </c>
       <c r="D117" s="4">
-        <v>24.72069924415651</v>
+        <v>7.488613323811995</v>
       </c>
       <c r="E117" s="4">
-        <v>47.460230223196852</v>
+        <v>15.17813821902609</v>
       </c>
       <c r="F117" s="4">
-        <v>85.897743118542564</v>
+        <v>21.893597527916711</v>
       </c>
       <c r="G117">
-        <v>392.77265556844242</v>
+        <v>93.904024752154385</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K117" s="4">
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4938,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>8805.0211561457327</v>
+        <v>35.710756210770953</v>
       </c>
       <c r="C118" s="4">
-        <v>2819.496712291218</v>
+        <v>11.72102053840293</v>
       </c>
       <c r="D118" s="4">
-        <v>1204.0144546280901</v>
+        <v>7.9033414621112072</v>
       </c>
       <c r="E118" s="4">
-        <v>1905.491408874909</v>
+        <v>23.15450011494417</v>
       </c>
       <c r="F118" s="4">
-        <v>925.34354917309815</v>
+        <v>23.076625016364218</v>
       </c>
       <c r="G118">
-        <v>15659.367281113049</v>
+        <v>101.56624334259349</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
@@ -4975,23 +4975,23 @@
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="4">
-        <v>107.02808361970089</v>
-      </c>
-      <c r="C119" s="4">
-        <v>19.552218076594631</v>
-      </c>
-      <c r="D119" s="4">
-        <v>5.0295749260992464</v>
-      </c>
-      <c r="E119" s="4">
-        <v>2.8157273137167991</v>
-      </c>
-      <c r="F119" s="4">
-        <v>2.57624894871919</v>
+      <c r="B119" s="3">
+        <v>43.497021582157522</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4.1668437047698568</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.261594061312707</v>
+      </c>
+      <c r="E119" s="3">
+        <v>8.619342766115448</v>
+      </c>
+      <c r="F119" s="3">
+        <v>23.575649267925041</v>
       </c>
       <c r="G119">
-        <v>137.0018528848307</v>
+        <v>83.12045138228055</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>14</v>
-      </c>
-      <c r="K119" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5014,22 +5014,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>324.99603926140861</v>
+        <v>34.713036273813671</v>
       </c>
       <c r="C120" s="4">
-        <v>49.944665097685402</v>
+        <v>28.26268821798914</v>
       </c>
       <c r="D120" s="4">
-        <v>6.0686023774838356</v>
+        <v>9.0345505827175163</v>
       </c>
       <c r="E120" s="4">
-        <v>3.1585329775624129</v>
+        <v>12.013472686828431</v>
       </c>
       <c r="F120" s="4">
-        <v>2.753402106103179</v>
+        <v>23.927918060179099</v>
       </c>
       <c r="G120">
-        <v>386.92124182024338</v>
+        <v>107.9516658215279</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K120" s="4">
         <v>1</v>
@@ -5051,23 +5051,23 @@
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="4">
-        <v>370.95492228798707</v>
-      </c>
-      <c r="C121" s="4">
-        <v>86.622411145432494</v>
-      </c>
-      <c r="D121" s="4">
-        <v>8.5237751559044348</v>
-      </c>
-      <c r="E121" s="4">
-        <v>3.5934068036354261</v>
-      </c>
-      <c r="F121" s="4">
-        <v>3.8654954518769902</v>
+      <c r="B121" s="3">
+        <v>200.67463168854209</v>
+      </c>
+      <c r="C121" s="3">
+        <v>34.784260998347818</v>
+      </c>
+      <c r="D121" s="3">
+        <v>13.55142477972446</v>
+      </c>
+      <c r="E121" s="3">
+        <v>11.28172405616821</v>
+      </c>
+      <c r="F121" s="3">
+        <v>24.115767630541391</v>
       </c>
       <c r="G121">
-        <v>473.56001084483648</v>
+        <v>284.40780915332402</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>8</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5090,22 +5090,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>87.53847369977828</v>
+        <v>1354.7893747964431</v>
       </c>
       <c r="C122" s="4">
-        <v>26.190516376407579</v>
+        <v>239.25892712093909</v>
       </c>
       <c r="D122" s="4">
-        <v>13.593938626867709</v>
+        <v>67.037737054676484</v>
       </c>
       <c r="E122" s="4">
-        <v>10.06005869390428</v>
+        <v>40.694431208542831</v>
       </c>
       <c r="F122" s="4">
-        <v>4.5737225060866891</v>
+        <v>24.681289476050811</v>
       </c>
       <c r="G122">
-        <v>141.9567099030445</v>
+        <v>1726.461759656652</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
@@ -5128,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>118.8170415296038</v>
+        <v>14.48233316645107</v>
       </c>
       <c r="C123" s="4">
-        <v>9.3619378862208684</v>
+        <v>10.53444491131224</v>
       </c>
       <c r="D123" s="4">
-        <v>3.6383940198838509</v>
+        <v>34.398095043618483</v>
       </c>
       <c r="E123" s="4">
-        <v>3.672091167706625</v>
+        <v>23.520746162423841</v>
       </c>
       <c r="F123" s="4">
-        <v>5.1787189454905782</v>
+        <v>27.926321806071321</v>
       </c>
       <c r="G123">
-        <v>140.66818354890569</v>
+        <v>110.86194108987701</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,36 +5152,36 @@
         <v>0</v>
       </c>
       <c r="J123">
+        <v>15</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
         <v>12</v>
-      </c>
-      <c r="K123" s="4">
-        <v>1</v>
-      </c>
-      <c r="L123" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4">
-        <v>373.01211424209771</v>
-      </c>
-      <c r="C124" s="4">
-        <v>127.7389754786836</v>
-      </c>
-      <c r="D124" s="4">
-        <v>23.76142273298175</v>
-      </c>
-      <c r="E124" s="4">
-        <v>7.2521393114572952</v>
-      </c>
-      <c r="F124" s="4">
-        <v>5.6920364140914721</v>
+      <c r="B124" s="3">
+        <v>121.0363689497585</v>
+      </c>
+      <c r="C124" s="3">
+        <v>25.037564903113399</v>
+      </c>
+      <c r="D124" s="3">
+        <v>16.931251382701952</v>
+      </c>
+      <c r="E124" s="3">
+        <v>16.71750665665958</v>
+      </c>
+      <c r="F124" s="3">
+        <v>31.307491935641838</v>
       </c>
       <c r="G124">
-        <v>537.45668817931187</v>
+        <v>211.03018382787539</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>5</v>
-      </c>
-      <c r="K124" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>14</v>
@@ -5203,23 +5203,23 @@
       <c r="A125" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="4">
-        <v>62.831225691383551</v>
-      </c>
-      <c r="C125" s="4">
-        <v>18.107710672907881</v>
-      </c>
-      <c r="D125" s="4">
-        <v>6.6984857170996506</v>
-      </c>
-      <c r="E125" s="4">
-        <v>6.4805688222789861</v>
-      </c>
-      <c r="F125" s="4">
-        <v>6.2864322525421814</v>
+      <c r="B125" s="3">
+        <v>36.129678025708728</v>
+      </c>
+      <c r="C125" s="3">
+        <v>33.546000619513748</v>
+      </c>
+      <c r="D125" s="3">
+        <v>7.2897440266315963</v>
+      </c>
+      <c r="E125" s="3">
+        <v>11.883636178170949</v>
+      </c>
+      <c r="F125" s="3">
+        <v>31.48652631066134</v>
       </c>
       <c r="G125">
-        <v>100.4044231562122</v>
+        <v>120.33558516068641</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>2</v>
-      </c>
-      <c r="K125" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>227.65925339721639</v>
+        <v>443.98956103117428</v>
       </c>
       <c r="C126" s="4">
-        <v>53.371987934050971</v>
+        <v>126.8851608409731</v>
       </c>
       <c r="D126" s="4">
-        <v>13.171104713649781</v>
+        <v>22.724708228341139</v>
       </c>
       <c r="E126" s="4">
-        <v>7.7404345707430746</v>
+        <v>25.680156394918772</v>
       </c>
       <c r="F126" s="4">
-        <v>7.2461055350877794</v>
+        <v>36.078913464261397</v>
       </c>
       <c r="G126">
-        <v>309.18888615074809</v>
+        <v>655.35849995966862</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
@@ -5280,22 +5280,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>67.892702612251369</v>
+        <v>9837.7223229140363</v>
       </c>
       <c r="C127" s="4">
-        <v>17.54457856924736</v>
+        <v>998.35910375016533</v>
       </c>
       <c r="D127" s="4">
-        <v>6.6032141905973702</v>
+        <v>69.74118333689438</v>
       </c>
       <c r="E127" s="4">
-        <v>7.7227175656559179</v>
+        <v>21.34510295752256</v>
       </c>
       <c r="F127" s="4">
-        <v>7.3178438341893361</v>
+        <v>38.779515625183507</v>
       </c>
       <c r="G127">
-        <v>107.08105677194141</v>
+        <v>10965.9472285838</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
@@ -5318,22 +5318,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>52.51639230667935</v>
+        <v>29.28032458399294</v>
       </c>
       <c r="C128" s="4">
-        <v>12.40032017617658</v>
+        <v>11.47164844298824</v>
       </c>
       <c r="D128" s="4">
-        <v>9.3572787302815943</v>
+        <v>19.57592785893603</v>
       </c>
       <c r="E128" s="4">
-        <v>7.4591672834967913</v>
+        <v>32.041980989795647</v>
       </c>
       <c r="F128" s="4">
-        <v>7.396699639305905</v>
+        <v>43.147275330963673</v>
       </c>
       <c r="G128">
-        <v>89.129858135940211</v>
+        <v>135.5171572066765</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,36 +5342,36 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4">
-        <v>216.32266214598019</v>
-      </c>
-      <c r="C129" s="4">
-        <v>54.908371571178719</v>
-      </c>
-      <c r="D129" s="4">
-        <v>9.5316363958388877</v>
-      </c>
-      <c r="E129" s="4">
-        <v>7.3275466917483048</v>
-      </c>
-      <c r="F129" s="4">
-        <v>8.0132167462068242</v>
+      <c r="B129" s="3">
+        <v>122.7673044995955</v>
+      </c>
+      <c r="C129" s="3">
+        <v>21.891746707853908</v>
+      </c>
+      <c r="D129" s="3">
+        <v>14.407923047736659</v>
+      </c>
+      <c r="E129" s="3">
+        <v>27.376657938314221</v>
+      </c>
+      <c r="F129" s="3">
+        <v>47.095571629024221</v>
       </c>
       <c r="G129">
-        <v>296.10343355095301</v>
+        <v>233.5392038225246</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>16</v>
-      </c>
-      <c r="K129" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,22 +5394,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>121.49044754806771</v>
+        <v>151.6284676939126</v>
       </c>
       <c r="C130" s="4">
-        <v>17.534575813182158</v>
+        <v>70.464999506463798</v>
       </c>
       <c r="D130" s="4">
-        <v>3.9882306584565299</v>
+        <v>58.406857031912878</v>
       </c>
       <c r="E130" s="4">
-        <v>5.9934670742396721</v>
+        <v>75.191688517036695</v>
       </c>
       <c r="F130" s="4">
-        <v>8.6030984069864598</v>
+        <v>49.390084822712069</v>
       </c>
       <c r="G130">
-        <v>157.6098195009325</v>
+        <v>405.08209757203809</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,36 +5418,36 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="4">
-        <v>1899.1412705960261</v>
-      </c>
-      <c r="C131" s="4">
-        <v>304.92640617257388</v>
-      </c>
-      <c r="D131" s="4">
-        <v>69.901975761827444</v>
-      </c>
-      <c r="E131" s="4">
-        <v>27.153892288588271</v>
-      </c>
-      <c r="F131" s="4">
-        <v>10.06761782653726</v>
+      <c r="B131" s="3">
+        <v>76.090572756892868</v>
+      </c>
+      <c r="C131" s="3">
+        <v>21.821337754858462</v>
+      </c>
+      <c r="D131" s="3">
+        <v>40.583753139013311</v>
+      </c>
+      <c r="E131" s="3">
+        <v>33.177702803307668</v>
+      </c>
+      <c r="F131" s="3">
+        <v>57.952621009383257</v>
       </c>
       <c r="G131">
-        <v>2311.191162645553</v>
+        <v>229.62598746345569</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>27</v>
-      </c>
-      <c r="K131" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5470,22 +5470,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>394.15308638282897</v>
+        <v>84.939912693670891</v>
       </c>
       <c r="C132" s="4">
-        <v>69.514811941213651</v>
+        <v>20.889662527447591</v>
       </c>
       <c r="D132" s="4">
-        <v>9.4581039166154763</v>
+        <v>32.325398494895992</v>
       </c>
       <c r="E132" s="4">
-        <v>11.594875664123579</v>
+        <v>41.773484474513261</v>
       </c>
       <c r="F132" s="4">
-        <v>13.100084713513681</v>
+        <v>65.138525596800719</v>
       </c>
       <c r="G132">
-        <v>497.82096261829543</v>
+        <v>245.0669837873285</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
@@ -5507,23 +5507,23 @@
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="4">
-        <v>263.13344169372851</v>
-      </c>
-      <c r="C133" s="4">
-        <v>46.888744673383869</v>
-      </c>
-      <c r="D133" s="4">
-        <v>12.94283646870619</v>
-      </c>
-      <c r="E133" s="4">
-        <v>13.24427946779349</v>
-      </c>
-      <c r="F133" s="4">
-        <v>18.144551127620598</v>
+      <c r="B133" s="3">
+        <v>167.64388657720849</v>
+      </c>
+      <c r="C133" s="3">
+        <v>45.685996954399457</v>
+      </c>
+      <c r="D133" s="3">
+        <v>19.21906919453593</v>
+      </c>
+      <c r="E133" s="3">
+        <v>30.504265584095499</v>
+      </c>
+      <c r="F133" s="3">
+        <v>79.747586894803533</v>
       </c>
       <c r="G133">
-        <v>354.35385343123249</v>
+        <v>342.80080520504288</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>3</v>
-      </c>
-      <c r="K133" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
         <v>14</v>
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>37.683911638105158</v>
+        <v>145.40600394973089</v>
       </c>
       <c r="C134" s="4">
-        <v>11.65976404329445</v>
+        <v>29.699784336400661</v>
       </c>
       <c r="D134" s="4">
-        <v>7.488613323811995</v>
+        <v>15.63458511619392</v>
       </c>
       <c r="E134" s="4">
-        <v>15.17813821902609</v>
+        <v>45.92632605761419</v>
       </c>
       <c r="F134" s="4">
-        <v>21.893597527916711</v>
+        <v>79.983243354805893</v>
       </c>
       <c r="G134">
-        <v>93.904024752154385</v>
+        <v>316.6499428147456</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,13 +5570,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5584,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>34.713036273813671</v>
+        <v>48.99644687615428</v>
       </c>
       <c r="C135" s="4">
-        <v>28.26268821798914</v>
+        <v>15.20070878553042</v>
       </c>
       <c r="D135" s="4">
-        <v>9.0345505827175163</v>
+        <v>11.190043956100681</v>
       </c>
       <c r="E135" s="4">
-        <v>12.013472686828431</v>
+        <v>43.477491737706487</v>
       </c>
       <c r="F135" s="4">
-        <v>23.927918060179099</v>
+        <v>85.870199537392935</v>
       </c>
       <c r="G135">
-        <v>107.9516658215279</v>
+        <v>204.73489089288481</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
@@ -5622,22 +5622,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>1354.7893747964431</v>
+        <v>176.7862812407414</v>
       </c>
       <c r="C136" s="4">
-        <v>239.25892712093909</v>
+        <v>57.907701741805127</v>
       </c>
       <c r="D136" s="4">
-        <v>67.037737054676484</v>
+        <v>24.72069924415651</v>
       </c>
       <c r="E136" s="4">
-        <v>40.694431208542831</v>
+        <v>47.460230223196852</v>
       </c>
       <c r="F136" s="4">
-        <v>24.681289476050811</v>
+        <v>85.897743118542564</v>
       </c>
       <c r="G136">
-        <v>1726.461759656652</v>
+        <v>392.77265556844242</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,22 +5660,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>443.98956103117428</v>
+        <v>794.63442881752383</v>
       </c>
       <c r="C137" s="4">
-        <v>126.8851608409731</v>
+        <v>153.90407326838439</v>
       </c>
       <c r="D137" s="4">
-        <v>22.724708228341139</v>
+        <v>54.302016855387308</v>
       </c>
       <c r="E137" s="4">
-        <v>25.680156394918772</v>
+        <v>57.101123822137517</v>
       </c>
       <c r="F137" s="4">
-        <v>36.078913464261397</v>
+        <v>88.200904091510964</v>
       </c>
       <c r="G137">
-        <v>655.35849995966862</v>
+        <v>1148.1425468549439</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>9837.7223229140363</v>
+        <v>822.98242492756299</v>
       </c>
       <c r="C138" s="4">
-        <v>998.35910375016533</v>
+        <v>168.62249707065999</v>
       </c>
       <c r="D138" s="4">
-        <v>69.74118333689438</v>
+        <v>36.683493977823332</v>
       </c>
       <c r="E138" s="4">
-        <v>21.34510295752256</v>
+        <v>39.237177783053383</v>
       </c>
       <c r="F138" s="4">
-        <v>38.779515625183507</v>
+        <v>91.652097853406843</v>
       </c>
       <c r="G138">
-        <v>10965.9472285838</v>
+        <v>1159.177691612507</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
@@ -5735,23 +5735,23 @@
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="4">
-        <v>84.939912693670891</v>
-      </c>
-      <c r="C139" s="4">
-        <v>20.889662527447591</v>
-      </c>
-      <c r="D139" s="4">
-        <v>32.325398494895992</v>
-      </c>
-      <c r="E139" s="4">
-        <v>41.773484474513261</v>
-      </c>
-      <c r="F139" s="4">
-        <v>65.138525596800719</v>
+      <c r="B139" s="3">
+        <v>69.001670817666607</v>
+      </c>
+      <c r="C139" s="3">
+        <v>66.059832790468732</v>
+      </c>
+      <c r="D139" s="3">
+        <v>33.042092535624953</v>
+      </c>
+      <c r="E139" s="3">
+        <v>49.687944032312011</v>
+      </c>
+      <c r="F139" s="3">
+        <v>92.029372579642114</v>
       </c>
       <c r="G139">
-        <v>245.0669837873285</v>
+        <v>309.8209127557144</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>22</v>
-      </c>
-      <c r="K139" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
       </c>
       <c r="L139" t="s">
         <v>14</v>
@@ -5773,23 +5773,23 @@
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
-        <v>48.99644687615428</v>
-      </c>
-      <c r="C140" s="4">
-        <v>15.20070878553042</v>
-      </c>
-      <c r="D140" s="4">
-        <v>11.190043956100681</v>
-      </c>
-      <c r="E140" s="4">
-        <v>43.477491737706487</v>
-      </c>
-      <c r="F140" s="4">
-        <v>85.870199537392935</v>
+      <c r="B140" s="3">
+        <v>9488.6262196554071</v>
+      </c>
+      <c r="C140" s="3">
+        <v>198.7518348111488</v>
+      </c>
+      <c r="D140" s="3">
+        <v>354.68729458489719</v>
+      </c>
+      <c r="E140" s="3">
+        <v>298.91252121970462</v>
+      </c>
+      <c r="F140" s="3">
+        <v>188.19385323452619</v>
       </c>
       <c r="G140">
-        <v>204.73489089288481</v>
+        <v>10529.17172350568</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,13 +5798,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>11</v>
-      </c>
-      <c r="K140" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>794.63442881752383</v>
+        <v>739.71806408780833</v>
       </c>
       <c r="C141" s="4">
-        <v>153.90407326838439</v>
+        <v>256.95982217485312</v>
       </c>
       <c r="D141" s="4">
-        <v>54.302016855387308</v>
+        <v>161.06375935596691</v>
       </c>
       <c r="E141" s="4">
-        <v>57.101123822137517</v>
+        <v>249.28415041505119</v>
       </c>
       <c r="F141" s="4">
-        <v>88.200904091510964</v>
+        <v>217.97078747784991</v>
       </c>
       <c r="G141">
-        <v>1148.1425468549439</v>
+        <v>1624.996583511529</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5849,23 +5849,23 @@
       <c r="A142" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="4">
-        <v>822.98242492756299</v>
-      </c>
-      <c r="C142" s="4">
-        <v>168.62249707065999</v>
-      </c>
-      <c r="D142" s="4">
-        <v>36.683493977823332</v>
-      </c>
-      <c r="E142" s="4">
-        <v>39.237177783053383</v>
-      </c>
-      <c r="F142" s="4">
-        <v>91.652097853406843</v>
+      <c r="B142" s="3">
+        <v>5816.9929199657836</v>
+      </c>
+      <c r="C142" s="3">
+        <v>937.6143179359816</v>
+      </c>
+      <c r="D142" s="3">
+        <v>474.83518925456559</v>
+      </c>
+      <c r="E142" s="3">
+        <v>530.36650149007494</v>
+      </c>
+      <c r="F142" s="3">
+        <v>315.40030212739748</v>
       </c>
       <c r="G142">
-        <v>1159.177691612507</v>
+        <v>8075.209230773803</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>13</v>
-      </c>
-      <c r="K142" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
       </c>
       <c r="L142" t="s">
         <v>14</v>
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>739.71806408780833</v>
+        <v>160.78052482744729</v>
       </c>
       <c r="C143" s="4">
-        <v>256.95982217485312</v>
+        <v>49.367541763860402</v>
       </c>
       <c r="D143" s="4">
-        <v>161.06375935596691</v>
+        <v>38.66686642090238</v>
       </c>
       <c r="E143" s="4">
-        <v>249.28415041505119</v>
+        <v>141.92318362451641</v>
       </c>
       <c r="F143" s="4">
-        <v>217.97078747784991</v>
+        <v>341.25926765187148</v>
       </c>
       <c r="G143">
-        <v>1624.996583511529</v>
+        <v>731.99738428859769</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5926,22 +5926,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>160.78052482744729</v>
+        <v>2445.029425451412</v>
       </c>
       <c r="C144" s="4">
-        <v>49.367541763860402</v>
+        <v>285.77835961145882</v>
       </c>
       <c r="D144" s="4">
-        <v>38.66686642090238</v>
+        <v>137.72049638897499</v>
       </c>
       <c r="E144" s="4">
-        <v>141.92318362451641</v>
+        <v>121.82797864029899</v>
       </c>
       <c r="F144" s="4">
-        <v>341.25926765187148</v>
+        <v>837.12087566608818</v>
       </c>
       <c r="G144">
-        <v>731.99738428859769</v>
+        <v>3827.4771357582331</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
@@ -5964,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>2445.029425451412</v>
+        <v>8805.0211561457327</v>
       </c>
       <c r="C145" s="4">
-        <v>285.77835961145882</v>
+        <v>2819.496712291218</v>
       </c>
       <c r="D145" s="4">
-        <v>137.72049638897499</v>
+        <v>1204.0144546280901</v>
       </c>
       <c r="E145" s="4">
-        <v>121.82797864029899</v>
+        <v>1905.491408874909</v>
       </c>
       <c r="F145" s="4">
-        <v>837.12087566608818</v>
+        <v>925.34354917309815</v>
       </c>
       <c r="G145">
-        <v>3827.4771357582331</v>
+        <v>15659.367281113049</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,16 +5988,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="F2:F146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>